--- a/Finflux Automation Excels/Client/4952-NonWorkSatandSun-AdvanceSettings-MOVEToSameDAY-CENTER-DISBDAILYLOANon01JAN2015.xlsx
+++ b/Finflux Automation Excels/Client/4952-NonWorkSatandSun-AdvanceSettings-MOVEToSameDAY-CENTER-DISBDAILYLOANon01JAN2015.xlsx
@@ -196,9 +196,6 @@
     <t>Transaction Date</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Disbursement</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,12 +866,12 @@
         <v>10000</v>
       </c>
       <c r="F2" s="9">
-        <v>5826.65</v>
+        <v>6662.05</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>32.68</v>
+        <v>31.3</v>
       </c>
       <c r="B3" s="8">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <v>32.68</v>
+        <v>31.3</v>
       </c>
       <c r="F3" s="8">
-        <v>19.190000000000001</v>
+        <v>18.91</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,21 +1298,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="10">
-        <v>42094</v>
+        <v>42093</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
-        <v>831.82</v>
+        <v>835.12</v>
       </c>
       <c r="G9" s="9">
-        <v>4180.5</v>
+        <v>4177.2</v>
       </c>
       <c r="H9" s="8">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="8">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="10">
-        <v>42095</v>
+        <v>42094</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1354,7 +1354,7 @@
         <v>831.82</v>
       </c>
       <c r="G10" s="9">
-        <v>3348.68</v>
+        <v>3345.38</v>
       </c>
       <c r="H10" s="8">
         <v>3.3</v>
@@ -1391,18 +1391,18 @@
         <v>1</v>
       </c>
       <c r="C11" s="10">
-        <v>42096</v>
+        <v>42095</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
-        <v>834.02</v>
+        <v>831.82</v>
       </c>
       <c r="G11" s="9">
-        <v>2514.66</v>
+        <v>2513.56</v>
       </c>
       <c r="H11" s="8">
-        <v>1.1000000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="I11" s="8">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="10">
-        <v>42097</v>
+        <v>42096</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1444,7 +1444,7 @@
         <v>834.29</v>
       </c>
       <c r="G12" s="9">
-        <v>1680.37</v>
+        <v>1679.27</v>
       </c>
       <c r="H12" s="8">
         <v>0.83</v>
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="10">
-        <v>42098</v>
+        <v>42097</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1489,7 +1489,7 @@
         <v>834.57</v>
       </c>
       <c r="G13" s="8">
-        <v>845.8</v>
+        <v>844.7</v>
       </c>
       <c r="H13" s="8">
         <v>0.55000000000000004</v>
@@ -1523,21 +1523,21 @@
         <v>12</v>
       </c>
       <c r="B14" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="10">
-        <v>42100</v>
+        <v>42098</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8">
-        <v>845.8</v>
+        <v>844.7</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>0.56000000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I14" s="8">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="8">
-        <v>846.36</v>
+        <v>844.98</v>
       </c>
       <c r="L14" s="8">
         <v>0</v>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="8">
-        <v>846.36</v>
+        <v>844.98</v>
       </c>
     </row>
   </sheetData>
@@ -1573,7 +1573,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,10 +1592,10 @@
         <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>42</v>
@@ -1610,23 +1610,23 @@
         <v>45</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>402</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10">
         <v>42086</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="7">
         <v>10000</v>
